--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.037</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.095</v>
+        <v>18.169</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.037</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.642</v>
+        <v>18.496</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.178</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.006</v>
+        <v>14.521</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.48734815510051</v>
+        <v>-3.578525365860909</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.4357700030417</v>
+        <v>23.61014580792405</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.46828641575198</v>
+        <v>29.97966901472367</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17.94698514904209</v>
+        <v>0.3772905402332825</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.09486229999145</v>
+        <v>20.40952384044574</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.21332846167696</v>
+        <v>28.96090156187437</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>19.37528890742034</v>
+        <v>15.25201759388294</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.10785937440048</v>
+        <v>30.60269689631384</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.09051038461275</v>
+        <v>36.0348574762539</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.27664879218406</v>
+        <v>32.21627462496867</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.098286921794</v>
+        <v>39.54732877217396</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.80801894722512</v>
+        <v>46.20469717173658</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.70996821676049</v>
+        <v>5.505047281310762</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.64213831298339</v>
+        <v>28.25659306577135</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.02355713867334</v>
+        <v>37.56843019473004</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.73956257482503</v>
+        <v>0.7933811177419585</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.72822906131831</v>
+        <v>30.12570298151133</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.77734783723417</v>
+        <v>38.37253004090578</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20.20248221494278</v>
+        <v>-0.4994487938533183</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.39219725043622</v>
+        <v>22.08465549442281</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.52786018409652</v>
+        <v>32.56942263355621</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21.63046246771885</v>
+        <v>15.98028689474539</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.40219077761011</v>
+        <v>33.47239133433298</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.40087167106117</v>
+        <v>40.56473219110946</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.60503966110262</v>
+        <v>35.7643848215847</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.46137475874925</v>
+        <v>45.96304591345186</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>34.18573517857352</v>
+        <v>54.47808857683862</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.02439416529549</v>
+        <v>10.10931602308221</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.0031750177271</v>
+        <v>37.04654789197524</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>35.40414046413829</v>
+        <v>47.8183863409463</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.12336439037425</v>
+        <v>4.899689206759057</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.05939865237159</v>
+        <v>36.73087697481009</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.09866719977361</v>
+        <v>46.37708685953246</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>26.71372565678708</v>
+        <v>3.660152648963116</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32.84928427774689</v>
+        <v>29.04460033977007</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>34.97489603623603</v>
+        <v>41.09425007807057</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.10635402392501</v>
+        <v>23.04889788094201</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>33.82782408210711</v>
+        <v>43.03138899533126</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>35.81691506145277</v>
+        <v>51.48087161033188</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>34.10480061989952</v>
+        <v>49.81474316306836</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.92040203213234</v>
+        <v>60.77417228780481</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>40.63484551486739</v>
+        <v>70.37806664416937</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.50860186652397</v>
+        <v>19.53524753161641</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>39.42545961036565</v>
+        <v>49.90914961773233</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>41.81531207832646</v>
+        <v>62.76282102565788</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>15.60119443457348</v>
+        <v>3.531469689128876</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21.60469129223815</v>
+        <v>32.85626394178864</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.64695488734941</v>
+        <v>38.63750524999683</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14.99875800063828</v>
+        <v>7.461104750495686</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21.20366663891415</v>
+        <v>29.92722602567534</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.33246045391497</v>
+        <v>37.8071462273556</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.45180248086954</v>
+        <v>23.7256037528266</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.2377251057361</v>
+        <v>41.22451725814945</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>24.22999637048837</v>
+        <v>46.06705726952892</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>22.35463147941779</v>
+        <v>42.72607211606881</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>27.21823345266658</v>
+        <v>51.46325945948411</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.93587078391226</v>
+        <v>56.75566182441653</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.77769829338208</v>
+        <v>13.84996257016515</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>27.77411723873945</v>
+        <v>39.4469107070882</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.16720377126859</v>
+        <v>47.7149512557932</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.87207181137169</v>
+        <v>4.518618849818973</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>23.9160805608427</v>
+        <v>36.00823153300232</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.9749807916369</v>
+        <v>43.61036928597922</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>17.27308280857626</v>
+        <v>3.186989570036298</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>23.52011151996106</v>
+        <v>28.22013801523505</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.66613618200149</v>
+        <v>37.97090766605019</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>18.72580897330027</v>
+        <v>21.05479446034753</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>24.55114999315028</v>
+        <v>40.712758364194</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>26.55948338045384</v>
+        <v>47.15960730495382</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>24.70259132824908</v>
+        <v>42.95551588015262</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.60110904828978</v>
+        <v>54.53041161698278</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.33336057984168</v>
+        <v>61.66344005375191</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>23.11170104977217</v>
+        <v>15.23055358463646</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.15505463651454</v>
+        <v>45.03278753753402</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>32.56772625634533</v>
+        <v>54.70878506844212</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>24.49992333498041</v>
+        <v>9.679308268431411</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30.49098468584933</v>
+        <v>43.73742036896222</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.53969831870112</v>
+        <v>52.72857148296837</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24.03116918793943</v>
+        <v>8.353202556985128</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.22372525636436</v>
+        <v>36.26139591620984</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>32.35933513556442</v>
+        <v>47.56579309833353</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.44843842297927</v>
+        <v>29.14538195907959</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.22322401425783</v>
+        <v>51.36127542683376</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>33.22162787883521</v>
+        <v>59.15607494493508</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>31.45050753059367</v>
+        <v>58.06733864696455</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36.30801309599526</v>
+        <v>70.44862936256006</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>38.03004959463212</v>
+        <v>78.65150675086937</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.84303686952848</v>
+        <v>25.74893200537853</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>36.82410600437404</v>
+        <v>59.07819395524983</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>39.22525829766197</v>
+        <v>70.81057445409158</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>15.60119443457348</v>
+        <v>1.70838340375164</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>21.60469129223815</v>
+        <v>30.84458811451451</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.64695488734941</v>
+        <v>36.47127254363323</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>14.99875800063828</v>
+        <v>5.460029928203337</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>21.20366663891415</v>
+        <v>27.71257140028227</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>23.33246045391497</v>
+        <v>35.41980396315699</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.45180248086954</v>
+        <v>21.68735547618962</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.2377251057361</v>
+        <v>38.99637778946006</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24.22999637048837</v>
+        <v>43.685464353487</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.35463147941779</v>
+        <v>40.73044267823118</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27.21823345266658</v>
+        <v>49.35700228951878</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.93587078391226</v>
+        <v>54.56338535162363</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.77769829338208</v>
+        <v>11.98187533799581</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.77411723873945</v>
+        <v>37.34530699863281</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.16720377126859</v>
+        <v>45.41059670950588</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.87207181137169</v>
+        <v>4.270408542093644</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>23.9160805608427</v>
+        <v>35.58415761252411</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.9749807916369</v>
+        <v>43.02402320246831</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>17.27308280857626</v>
+        <v>2.786759278403483</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>23.52011151996106</v>
+        <v>27.62029023822879</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>25.66613618200149</v>
+        <v>37.18984643538929</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.72580897330027</v>
+        <v>20.63513572810735</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.55114999315028</v>
+        <v>40.1154501145537</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.55948338045384</v>
+        <v>46.40147453509906</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>24.70259132824908</v>
+        <v>42.56231890845919</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.60110904828978</v>
+        <v>54.02961439004669</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>31.33336057984168</v>
+        <v>61.06618502285213</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>23.11170104977217</v>
+        <v>14.94773711157979</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>30.15505463651454</v>
+        <v>44.5298160534232</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>32.56772625634533</v>
+        <v>53.99385554246566</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.49992333498041</v>
+        <v>9.406862949685532</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.49098468584933</v>
+        <v>43.29265550962576</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>32.53969831870112</v>
+        <v>52.12831565589001</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>24.03116918793943</v>
+        <v>7.929368774347125</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>30.22372525636436</v>
+        <v>35.64166903352437</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.35933513556442</v>
+        <v>46.77281797160089</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.44843842297927</v>
+        <v>28.69916620971891</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>31.22322401425783</v>
+        <v>50.74070025798189</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>33.22162787883521</v>
+        <v>58.3816163558158</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>31.45050753059367</v>
+        <v>57.64298666220839</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>36.30801309599526</v>
+        <v>69.917753408576</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>38.03004959463212</v>
+        <v>78.02583556351301</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.84303686952848</v>
+        <v>25.42080708658894</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>36.82410600437404</v>
+        <v>58.53506198664601</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>39.22525829766197</v>
+        <v>70.06361902664035</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>17.03445057397716</v>
+        <v>-7.133814795256392</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.99738780136927</v>
+        <v>19.56940046296809</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.03452876097205</v>
+        <v>25.68170646522405</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>16.46028772469355</v>
+        <v>-3.485698187191495</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.62315566078108</v>
+        <v>16.02091932975186</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.74647466465775</v>
+        <v>24.27488057942026</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>17.89585702286239</v>
+        <v>11.1122375040074</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.64240374289926</v>
+        <v>25.99647702852276</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.62958888771114</v>
+        <v>31.17195061078775</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>23.80416860802293</v>
+        <v>27.37613921270891</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.63742301938223</v>
+        <v>34.580938666654</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.35121423908038</v>
+        <v>41.01260756959356</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>22.24184248821721</v>
+        <v>1.299819893974455</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.19094995755206</v>
+        <v>23.48076006262436</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.5778235979788</v>
+        <v>32.39226075912715</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>19.29630757513299</v>
+        <v>-3.552959819073301</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.2996126421096</v>
+        <v>25.27365967226286</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>27.35340194697337</v>
+        <v>33.24606051505032</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>18.72542558929981</v>
+        <v>-5.158689697714301</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.93025946893546</v>
+        <v>16.87563536109858</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.07082310536707</v>
+        <v>27.04449173035511</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.94650474040486</v>
+        <v>28.04338699530886</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.94976443906211</v>
+        <v>34.86267797379591</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.14242186175184</v>
+        <v>30.14288497054859</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.01047544824547</v>
+        <v>40.20296574478067</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>32.73893280202635</v>
+        <v>48.48244251310625</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>24.56606537841567</v>
+        <v>5.13008103298613</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.56192743209535</v>
+        <v>31.46709160899937</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33.96840197107933</v>
+        <v>41.82046708880745</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.76704250649813</v>
+        <v>1.287283357831489</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.71768923044451</v>
+        <v>32.62521495794451</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.76159290683829</v>
+        <v>42.00345435243767</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.32473318713323</v>
+        <v>-0.2895220798842857</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>31.47538365992582</v>
+        <v>24.55845189585749</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.60585814468158</v>
+        <v>36.29943318722731</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>26.72457260534886</v>
+        <v>18.83774138833135</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>32.46011308762289</v>
+        <v>38.34474305737517</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34.45374761053601</v>
+        <v>46.52737422617865</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>32.7304829694867</v>
+        <v>44.92213655395199</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>37.55777710741823</v>
+        <v>55.7560311794544</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>39.27628355282929</v>
+        <v>65.1176013248853</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>31.13805801451227</v>
+        <v>15.28681897900402</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.07196449073949</v>
+        <v>45.07668271370231</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>40.46728274397312</v>
+        <v>57.51674664741834</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>18.71847211141539</v>
+        <v>2.398304690899527</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24.66740601220372</v>
+        <v>30.54875614101396</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.6972990067469</v>
+        <v>36.72660734387884</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>18.17836096083935</v>
+        <v>6.770079907602003</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.32678716654591</v>
+        <v>27.87706375984042</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.44256140982191</v>
+        <v>36.2159430871778</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>19.60625879694382</v>
+        <v>22.06875216912103</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.33933532033004</v>
+        <v>38.36808012082679</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.31945761990833</v>
+        <v>43.61821633960249</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.50343128685988</v>
+        <v>39.77818087361354</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>30.32532804547314</v>
+        <v>47.68178356972748</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>32.03288868175383</v>
+        <v>54.10592968280695</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>23.93449553066607</v>
+        <v>12.17536694623191</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.86731656535304</v>
+        <v>36.09867758320777</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.24572412434358</v>
+        <v>45.1170982972731</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.98296871619436</v>
+        <v>8.227479900478398</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.97212572783538</v>
+        <v>38.52433409894474</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.01858472039688</v>
+        <v>46.53575586288277</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>20.44623895462393</v>
+        <v>7.337711733700274</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.63648029161936</v>
+        <v>30.99681244054185</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.76941329516271</v>
+        <v>41.22021154437673</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>27.64603436157253</v>
+        <v>42.7293729407519</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.64215112961805</v>
+        <v>49.59674198760826</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.84421215832096</v>
+        <v>44.87680920521838</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>32.70078554733309</v>
+        <v>55.64256528809674</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>34.42294335268191</v>
+        <v>63.89740805036431</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.26123815259151</v>
+        <v>18.34743708496625</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>33.24064571702061</v>
+        <v>46.45682390305929</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.63855676411202</v>
+        <v>56.88424069526234</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>27.3715093282564</v>
+        <v>11.21126298780884</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>33.30794926205838</v>
+        <v>43.98958994892256</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>35.34463936070406</v>
+        <v>53.41067415326524</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.96203213591219</v>
+        <v>10.33850874182367</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.09802750401136</v>
+        <v>36.77769051840504</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.2209914977079</v>
+        <v>48.57757840111798</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.3543340262309</v>
+        <v>30.18822158685696</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>34.07620510195594</v>
+        <v>51.10319781669778</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.06280899869084</v>
+        <v>59.33759811319062</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>34.34861912245381</v>
+        <v>57.75393930377921</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>39.16439560261517</v>
+        <v>69.28830033603808</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>40.87670887466896</v>
+        <v>78.62116296849081</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.75008170142858</v>
+        <v>26.63828577796549</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>39.66746406438095</v>
+        <v>58.16862801022661</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>42.05435436376065</v>
+        <v>70.68500431241168</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>12.45077552329539</v>
+        <v>0.4223980424465843</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.35649295474945</v>
+        <v>30.17294862703224</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>20.36573506316073</v>
+        <v>35.59052248457594</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>11.80124919702682</v>
+        <v>4.917164688076532</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>17.90492152153506</v>
+        <v>27.94048675476509</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>19.9993716256566</v>
+        <v>35.41211209188327</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>13.23867429248864</v>
+        <v>21.24591887566754</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>18.93015736231761</v>
+        <v>39.26701600725963</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>20.89025538787746</v>
+        <v>43.77731328959189</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>19.04318221185256</v>
+        <v>40.58268210205367</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.82775533000399</v>
+        <v>49.59140323948458</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.51784508407579</v>
+        <v>54.7960703211694</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>17.51388105077609</v>
+        <v>11.41281669745406</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>24.3964080384771</v>
+        <v>37.48772002177672</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.75093027903724</v>
+        <v>45.40649782323273</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.7336102307916</v>
+        <v>7.783904145984378</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>20.67936611284162</v>
+        <v>39.72441546513398</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22.70500239564441</v>
+        <v>46.88724010601493</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.08801297556426</v>
+        <v>7.060033429041962</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>20.23331151056525</v>
+        <v>32.67817048096709</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>22.34474173625323</v>
+        <v>41.93609639644392</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>15.52505956089936</v>
+        <v>25.11618677963112</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>21.25549915900604</v>
+        <v>45.32055379704358</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>23.2314254656792</v>
+        <v>51.36243756212246</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>21.40293220508892</v>
+        <v>47.41515920314512</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.22199955986208</v>
+        <v>59.26667990684984</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>27.92648720692</v>
+        <v>66.23942336270495</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.85969100530487</v>
+        <v>19.35481755288329</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.78860253263833</v>
+        <v>49.64970084895526</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.16242556833164</v>
+        <v>58.88844005794163</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.39868342886146</v>
+        <v>11.65210351214207</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>20.88198560143451</v>
+        <v>10.9013230466239</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>26.9740640579271</v>
+        <v>39.32588861888848</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.07531747256237</v>
+        <v>50.12281891689304</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>22.28418079018179</v>
+        <v>31.84021400247986</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.96523203077969</v>
+        <v>54.54169421261754</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.93145511326072</v>
+        <v>61.9183823279973</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.18686853545201</v>
+        <v>61.04274115375056</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>32.9658326113463</v>
+        <v>73.68457900060658</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>34.66033810956148</v>
+        <v>81.69470112901882</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>26.62615539768159</v>
+        <v>28.46186311668975</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>33.49419938950524</v>
+        <v>62.21346725283171</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>35.85676465734845</v>
+        <v>73.48418165971017</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>12.37792489805416</v>
+        <v>-9.011729150491409</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>18.28499930062844</v>
+        <v>18.17809883025316</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.29853627126693</v>
+        <v>23.84811071921258</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>11.73039617620406</v>
+        <v>-5.411347589455666</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>17.8354412937686</v>
+        <v>14.75297621839815</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>19.93431826802281</v>
+        <v>22.49956143594607</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>13.16858734941798</v>
+        <v>9.827334007413636</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.86136153953615</v>
+        <v>25.3272192328281</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.82561549450273</v>
+        <v>30.06958361071321</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.98037752613102</v>
+        <v>27.23451186503129</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.76628847066413</v>
+        <v>34.77740310987561</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.45992340279057</v>
+        <v>40.40732864447784</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>17.45178491843907</v>
+        <v>0.3932596634373198</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>24.33580837158795</v>
+        <v>23.3322956648039</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.69528684292427</v>
+        <v>31.66763385098633</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>14.64475995935347</v>
+        <v>-3.862688678786185</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>20.59192002781224</v>
+        <v>25.50966603735154</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.62190494379709</v>
+        <v>33.02491158851536</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>14.00101217926647</v>
+        <v>-5.414144312705993</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>20.14773300874995</v>
+        <v>17.3422949041917</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>22.26364626658183</v>
+        <v>26.98754699422657</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>15.43881607328171</v>
+        <v>11.45399022107228</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>21.17059367971038</v>
+        <v>29.13289426311383</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>23.15072825563355</v>
+        <v>35.50562983060514</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>21.32398591997343</v>
+        <v>31.68602449615651</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.14443398105679</v>
+        <v>42.07923164762775</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.85251329443591</v>
+        <v>49.53253723706564</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>19.78154410569957</v>
+        <v>5.908406708685195</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.7120057318465</v>
+        <v>33.06017686876974</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.09084875458353</v>
+        <v>42.83305267516239</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>21.29666065770442</v>
+        <v>2.126144751632831</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.19218770176603</v>
+        <v>34.05385376864032</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.21209855559056</v>
+        <v>42.9274066573511</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>20.78202737906939</v>
+        <v>0.6122200152712445</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.87563781472387</v>
+        <v>26.23044334114291</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.98125337566301</v>
+        <v>37.3958781493128</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>22.18487049650641</v>
+        <v>20.38047882377652</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>27.86736172725835</v>
+        <v>40.60384480000533</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.83767978291065</v>
+        <v>48.29539328302117</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.09480534017516</v>
+        <v>47.51717607352031</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>32.87522756669819</v>
+        <v>58.68561854675518</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34.5732182366317</v>
+        <v>67.20791671311579</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>26.53495527909911</v>
+        <v>17.12385122240962</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>33.40467465347329</v>
+        <v>47.77911681679461</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>35.77212407482843</v>
+        <v>59.5756549903985</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>18.21822512766425</v>
+        <v>-14.29974082454531</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>24.23370760468102</v>
+        <v>13.50140950493564</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.28579802179551</v>
+        <v>19.61573866360538</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>17.65542768974494</v>
+        <v>-10.45365188696336</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>23.8726064206675</v>
+        <v>10.24985549571958</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>26.0116095356179</v>
+        <v>18.515805469097</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>19.1030076225881</v>
+        <v>4.653618453715218</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>24.90022033946311</v>
+        <v>20.58991845884172</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.90206307869069</v>
+        <v>25.77070207164452</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.05030152631803</v>
+        <v>22.11596414329424</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.9257062710271</v>
+        <v>29.95161064088967</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>31.65190716986012</v>
+        <v>36.27819883003491</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>23.46175651053563</v>
+        <v>-5.124816807732813</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.47214911123017</v>
+        <v>18.38894707066361</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>32.87667854700274</v>
+        <v>27.28399537677949</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>20.52094719738947</v>
+        <v>-10.09739405158864</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.57715320379161</v>
+        <v>19.84225223748464</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.64598720357871</v>
+        <v>27.7991069028891</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>19.96173881621749</v>
+        <v>-11.53019894656883</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>26.22125362028175</v>
+        <v>11.7166127003749</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.37759947876854</v>
+        <v>21.8772202765562</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>21.40896201844746</v>
+        <v>5.215118329120163</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>27.24579775572058</v>
+        <v>23.28605477179428</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.26380651062559</v>
+        <v>30.09269989323308</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.43049061131316</v>
+        <v>25.56997167837802</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>32.34099756462642</v>
+        <v>36.26894734493322</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>34.08193948646652</v>
+        <v>44.43679289081894</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.82771882550502</v>
+        <v>-0.5819980019568796</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>32.88528033202653</v>
+        <v>27.11080065639974</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.30952258751375</v>
+        <v>37.4259087331512</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>27.04089894199262</v>
+        <v>-6.454464525379056</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>33.04402274993737</v>
+        <v>25.99058721391014</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.10289129615438</v>
+        <v>35.36903637461239</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.61081290287899</v>
+        <v>-7.874885705658414</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>32.81571025816617</v>
+        <v>18.17839410506157</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.96188119114947</v>
+        <v>29.9290034000601</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.02237160297103</v>
+        <v>11.78731314559755</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.80852164289363</v>
+        <v>32.35481220959119</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.81682371380798</v>
+        <v>40.5403877139136</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.06845215705658</v>
+        <v>39.13588796280243</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>38.93786687402344</v>
+        <v>50.61348750607684</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>40.66877965762625</v>
+        <v>59.86756344715168</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>32.44961012041755</v>
+        <v>8.373365572558342</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>39.44471632911733</v>
+        <v>39.51728166139176</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.85770753671618</v>
+        <v>51.93580789205819</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>15.47581107308264</v>
+        <v>8.863354807310646</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>21.43074676357496</v>
+        <v>39.18337128130659</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>23.45606502966216</v>
+        <v>44.78587129179972</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.88198579583482</v>
+        <v>13.80279432601791</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.03653032971183</v>
+        <v>37.39504914341796</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.1477423104067</v>
+        <v>45.0835030404656</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16.32346789621016</v>
+        <v>30.5887992803789</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.06240115919683</v>
+        <v>49.10865291466442</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>24.03820369522794</v>
+        <v>53.7982567076318</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.18281436016347</v>
+        <v>50.72753406733809</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>27.00746188689982</v>
+        <v>59.89048373187664</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.710633026671</v>
+        <v>65.21500350216152</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>20.62107855028356</v>
+        <v>21.04415300609676</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.56089994453561</v>
+        <v>47.76090215758622</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.93422809585402</v>
+        <v>56.02174830481923</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>17.75615220519451</v>
+        <v>10.11348104322557</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>23.75139283364485</v>
+        <v>42.62012071275184</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.79321061580888</v>
+        <v>49.97786932072034</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>17.16609714220947</v>
+        <v>9.717008780741427</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>23.36254526788195</v>
+        <v>35.90419673574242</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.49084636037205</v>
+        <v>45.38913605517583</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>18.60720957293734</v>
+        <v>28.14902575157251</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>24.38535935707562</v>
+        <v>48.85118960368202</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.37709160499389</v>
+        <v>55.08143653810084</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.54032871061089</v>
+        <v>51.20099654241849</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.39970741008513</v>
+        <v>63.22237303432266</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31.11737343207287</v>
+        <v>70.32363573095843</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.96465437226513</v>
+        <v>22.68139238740565</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.95116780525353</v>
+        <v>53.62331546115824</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>32.34392122375075</v>
+        <v>63.2086980466384</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.3537951830616</v>
+        <v>13.93328959058474</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.29673891068087</v>
+        <v>48.95854930473637</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>32.32847653212064</v>
+        <v>57.68478761529807</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.89240180345255</v>
+        <v>13.56313812508899</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>30.03505330368267</v>
+        <v>42.57000786967934</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>32.1530493511288</v>
+        <v>53.58636638659765</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.29842243816459</v>
+        <v>34.86856323061034</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.02664735629804</v>
+        <v>58.07902939509739</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.00855441561841</v>
+        <v>65.63777052374391</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>31.25629851303131</v>
+        <v>64.84261570604605</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.07514360247445</v>
+        <v>77.64553067045065</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>37.78271135039087</v>
+        <v>85.80004884038377</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.66384604467136</v>
+        <v>31.76355661303096</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>36.58883704078686</v>
+        <v>66.17731527295504</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>38.97019172338984</v>
+        <v>77.78684196780901</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>11.65627858775986</v>
+        <v>-12.58128415123939</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>17.59689607032025</v>
+        <v>13.67486594480647</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>19.62445886046871</v>
+        <v>19.84462277134587</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.98909365684435</v>
+        <v>-10.13292688597492</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>17.12901587009366</v>
+        <v>9.106368476079567</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.24238443621157</v>
+        <v>17.39644456590763</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.437641627353</v>
+        <v>4.700132893281099</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.16297482034108</v>
+        <v>19.38588436895085</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.140800263545</v>
+        <v>24.61312407938075</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.27850332139659</v>
+        <v>21.13653300732396</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.09108729204397</v>
+        <v>28.28358306131125</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>24.7968680288737</v>
+        <v>34.14188600917188</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.74383116258659</v>
+        <v>-5.144766729861907</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>23.6669540305823</v>
+        <v>16.91923979608544</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.04274259960869</v>
+        <v>25.65546566996944</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>13.90635050631416</v>
+        <v>-9.633072203271041</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>19.88716928871354</v>
+        <v>18.73249370271319</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.9313147790494</v>
+        <v>26.81195015094238</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>13.24261839862256</v>
+        <v>-12.22617535509021</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>19.42433839498188</v>
+        <v>9.517656178484463</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.55488246033087</v>
+        <v>19.78165533992617</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>14.69081327598185</v>
+        <v>4.143945370043003</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>20.45526354786098</v>
+        <v>20.93494537556008</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.44909981312293</v>
+        <v>27.85712346201875</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>20.6051173972388</v>
+        <v>23.32263304897143</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.4523447680022</v>
+        <v>33.24630329704713</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.17268383151537</v>
+        <v>40.98878712741475</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>19.05663975614179</v>
+        <v>-1.886474058713763</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.02633821257878</v>
+        <v>24.2894048298306</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.42164757786436</v>
+        <v>34.55415906316946</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>20.58522982892249</v>
+        <v>-3.705702014864958</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.51391276993794</v>
+        <v>27.20055972516261</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.54790017357677</v>
+        <v>36.6488228968432</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.05212504929614</v>
+        <v>-6.283183345451867</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>26.1802120024252</v>
+        <v>18.30617115738592</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.30037225198287</v>
+        <v>30.10086052647289</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.46498534711176</v>
+        <v>12.97279116571719</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.1796615605854</v>
+        <v>32.29464365335687</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.16359942351466</v>
+        <v>40.54498716965911</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.40458801007504</v>
+        <v>39.07329797844283</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>32.21143288800252</v>
+        <v>49.77445606368946</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>33.92158369343612</v>
+        <v>58.6007977891012</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.83888665838165</v>
+        <v>9.30429215157182</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.74725593774417</v>
+        <v>38.95432252301981</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>35.13107721004575</v>
+        <v>51.26115893935329</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>13.4583904468434</v>
+        <v>-1.169453841098051</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.43086004567517</v>
+        <v>27.25075825207208</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.46320502687598</v>
+        <v>32.72725013264508</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>12.81330270241033</v>
+        <v>2.168304974760717</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>18.98615056402689</v>
+        <v>23.73144657433038</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.10460606617012</v>
+        <v>31.25349783056156</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>14.2647770102332</v>
+        <v>17.93107042966066</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>20.02079199725799</v>
+        <v>34.64547964503153</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.00337420046597</v>
+        <v>39.19078767272781</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>20.13099832193623</v>
+        <v>36.1333247612904</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>24.96931366177273</v>
+        <v>44.53101444552789</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.67897244003962</v>
+        <v>49.62237027469988</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>18.57549890683071</v>
+        <v>7.998627521520694</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.53581393091907</v>
+        <v>32.60049280435956</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.91730589917332</v>
+        <v>40.368296117093</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15.73482803025314</v>
+        <v>5.614237650397882</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>21.74765061788669</v>
+        <v>36.19742186224357</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>23.79657032820627</v>
+        <v>43.47846497286615</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.09331455973257</v>
+        <v>3.842244917893616</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>21.30811702624202</v>
+        <v>27.96609949840514</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>23.44373935110522</v>
+        <v>37.34269962603429</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>16.5444610928698</v>
+        <v>21.26589961921871</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.33973926335522</v>
+        <v>40.13525979224325</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>24.33832404856808</v>
+        <v>46.27067333566544</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>22.48439603125234</v>
+        <v>42.36346168752682</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>27.35748449872014</v>
+        <v>53.57036276159702</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.08169963477722</v>
+        <v>60.48288690122806</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>20.91491074568618</v>
+        <v>15.31606971169292</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>27.92197736395979</v>
+        <v>44.10312316257129</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.3229811312405</v>
+        <v>53.27018468925601</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>22.41853206578079</v>
+        <v>10.82003218995504</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.37877686593684</v>
+        <v>43.95666074404537</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.41759816389882</v>
+        <v>52.63233530938214</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>21.90757786709939</v>
+        <v>9.014760863531007</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.06828754655627</v>
+        <v>35.99617593337587</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.19358495689694</v>
+        <v>46.93290623475944</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>23.32340012988365</v>
+        <v>29.35169538677376</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.06847648082466</v>
+        <v>50.76386947486983</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>31.05721717627939</v>
+        <v>58.25273231615564</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.28874139731317</v>
+        <v>57.42018855981303</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.12110390097612</v>
+        <v>69.43773718354265</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>35.8351832080197</v>
+        <v>77.4064815418638</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>27.70216434700681</v>
+        <v>25.81647545068204</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>34.64737766892945</v>
+        <v>58.10893087348356</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>37.03696083497922</v>
+        <v>69.33736627047594</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>13.27792727056347</v>
+        <v>-11.07951765699161</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>19.22986948911946</v>
+        <v>15.70704482533109</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>21.25719283104425</v>
+        <v>21.16431992245899</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>12.63604628745495</v>
+        <v>-8.271771066959982</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>18.78763602686343</v>
+        <v>11.49206568894265</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.90083863959622</v>
+        <v>18.97841129383401</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>14.08249531894303</v>
+        <v>6.785209870204911</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.8187121480234</v>
+        <v>21.92091772499161</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.796392448702</v>
+        <v>26.43928259859815</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.93151261556643</v>
+        <v>23.42227386133206</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>24.75325287246678</v>
+        <v>30.97565417002679</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.4584959358974</v>
+        <v>36.09635968105243</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>18.38326661775734</v>
+        <v>-3.064425165471356</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.31956212720655</v>
+        <v>19.53316457190914</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.69511229885783</v>
+        <v>27.3270671955486</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>15.51952327292798</v>
+        <v>-10.35281813079089</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>21.51168559871024</v>
+        <v>18.56084738205703</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>23.55555268850097</v>
+        <v>25.84924108558021</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>14.88093248896531</v>
+        <v>-12.69382601431311</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>21.07433946259788</v>
+        <v>9.594155944003983</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.20467733905871</v>
+        <v>18.9656375868465</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>16.32707420021144</v>
+        <v>3.912560993941092</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.10242582956166</v>
+        <v>21.16990343669837</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.09607923238596</v>
+        <v>27.30553854991531</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.24945254163427</v>
+        <v>23.37889973211408</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>27.105853788805</v>
+        <v>33.73118846531008</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.82562412939422</v>
+        <v>40.68454727382383</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>20.68742148400389</v>
+        <v>-2.001902138140064</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.6703145339777</v>
+        <v>24.73293682887127</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>30.0653408326585</v>
+        <v>33.95843157624221</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>22.18009134435868</v>
+        <v>-2.522754807070118</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.11996461107104</v>
+        <v>28.98794419784026</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.15362473934533</v>
+        <v>37.64559522706675</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>21.67191174309859</v>
+        <v>-4.853827246826924</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>27.81152620745967</v>
+        <v>20.34102679189138</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.93142736482322</v>
+        <v>31.24434309412948</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>23.08285073473926</v>
+        <v>14.69127419547949</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.80827806967174</v>
+        <v>34.53386447522415</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.79198366407775</v>
+        <v>41.99852695728818</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.0305190422799</v>
+        <v>41.11246846500457</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>33.84640649620405</v>
+        <v>52.27641218472752</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.55595371309825</v>
+        <v>60.28904393624892</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>27.45141405004868</v>
+        <v>11.1257978674053</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>34.37279848908651</v>
+        <v>41.41385669324175</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>36.75627815251609</v>
+        <v>52.67139942384146</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>10.91275001702595</v>
+        <v>-19.89910457158227</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>16.83043894503194</v>
+        <v>5.841581196494943</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>18.84686111017761</v>
+        <v>11.10279343263779</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>10.22460921468087</v>
+        <v>-17.72376737097633</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>16.34080191734345</v>
+        <v>0.9877188085880988</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.44263980905003</v>
+        <v>8.235087564007378</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>11.66921830995138</v>
+        <v>-3.295200706637136</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.37241742216486</v>
+        <v>10.92678585748587</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.33944766901228</v>
+        <v>15.25428408530347</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.47831217681574</v>
+        <v>12.24934980559165</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.27214088544041</v>
+        <v>19.45092113303043</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.96859547680452</v>
+        <v>24.42126064074314</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>15.95386376921252</v>
+        <v>-13.14831315632116</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.85029451966396</v>
+        <v>8.30883655002695</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.21309719653111</v>
+        <v>15.75668631262328</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13.15829819044492</v>
+        <v>-17.27630805697993</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.11603003610329</v>
+        <v>10.5602611030517</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.14892837291444</v>
+        <v>17.64109937759014</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>12.47356742974781</v>
+        <v>-20.14621460133549</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>18.63139291245555</v>
+        <v>1.051224911213637</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.75029620266059</v>
+        <v>10.17298046318374</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>13.91786108670257</v>
+        <v>-4.161581413167948</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.66002200282435</v>
+        <v>12.14978238556171</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.64296037451353</v>
+        <v>18.08505050469298</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.80004171668558</v>
+        <v>14.20469105007384</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>24.628372763875</v>
+        <v>24.16923308412664</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.33929142409499</v>
+        <v>30.96262480288327</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.26178958138055</v>
+        <v>-10.1200290153357</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.20461372129463</v>
+        <v>15.41918398767906</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.58681256545594</v>
+        <v>24.29587419083393</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>19.87883772053829</v>
+        <v>-9.020366476360085</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.78468984928774</v>
+        <v>21.39642205577022</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.80747036679928</v>
+        <v>29.84813150383956</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>19.32487165275952</v>
+        <v>-11.90725665896041</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.42932555313028</v>
+        <v>12.17798432584474</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.53788291630049</v>
+        <v>22.8331864791285</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>20.7341125010695</v>
+        <v>7.00941837943674</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.42674086004508</v>
+        <v>25.88932484379672</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.39981786441234</v>
+        <v>33.15503650486124</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.64169968140456</v>
+        <v>32.27618495542166</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.42983297851752</v>
+        <v>43.05309218953131</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.13060914302839</v>
+        <v>50.89662264728382</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.08581560781348</v>
+        <v>3.388738584667898</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.9676091060816</v>
+        <v>32.45501570270108</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.33836089571508</v>
+        <v>43.36341049018986</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>18.03151808963226</v>
+        <v>-2.504418668238774</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.04711703739856</v>
+        <v>24.60763122977157</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.10246738112629</v>
+        <v>30.89087570527488</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.46918835546967</v>
+        <v>1.042945476154078</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.68646368706609</v>
+        <v>20.96492175279115</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.82881816202542</v>
+        <v>29.42296844851095</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.91731104477337</v>
+        <v>16.08120910110228</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.71462169239734</v>
+        <v>31.32609215437363</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.71961186356269</v>
+        <v>36.66894726358221</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.86997200147809</v>
+        <v>32.86991653037109</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.7456574667482</v>
+        <v>40.17719581657229</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>31.47455193450532</v>
+        <v>46.69306387811554</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>23.28324160404511</v>
+        <v>6.256734459811327</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.29370377836592</v>
+        <v>28.90452185447178</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>32.70198347928466</v>
+        <v>38.07286007746099</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>20.320402163311</v>
+        <v>-0.3190108176474986</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.3767556184879</v>
+        <v>28.92959458677674</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.44889263977132</v>
+        <v>37.08202856080359</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>19.76154379321434</v>
+        <v>-2.072154394747702</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.02118780375333</v>
+        <v>20.39373502117703</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.18093004974005</v>
+        <v>30.77589440697778</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.20930104099646</v>
+        <v>14.55154404846364</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.04626569635955</v>
+        <v>31.93083479569296</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.06746383984551</v>
+        <v>38.92546848646863</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.23620145720378</v>
+        <v>34.16291663115616</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.14701776023649</v>
+        <v>44.33392532509051</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>33.8906903753987</v>
+        <v>52.70460890734731</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.63532526872993</v>
+        <v>8.634263931012025</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.69299138927902</v>
+        <v>35.46129312043773</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>35.12103501514321</v>
+        <v>46.07991019077205</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.83278592787651</v>
+        <v>4.604225993835204</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>32.83615075829784</v>
+        <v>36.37568195622598</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>34.89822542871941</v>
+        <v>45.93202349194144</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.40325389461562</v>
+        <v>2.909240790973088</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.60837927898001</v>
+        <v>28.20195670024581</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.75784866632705</v>
+        <v>40.15407518260263</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>27.81526103958171</v>
+        <v>22.46103708145634</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>33.60163192161313</v>
+        <v>42.35422332729757</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>35.61303157215927</v>
+        <v>50.71043476336197</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.86667762428152</v>
+        <v>49.08088725077182</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>38.73647133646122</v>
+        <v>60.02221967282708</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>40.47002862705055</v>
+        <v>69.48475219445164</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>32.24975806666555</v>
+        <v>18.90248435241286</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>39.24508163619942</v>
+        <v>49.19697659802458</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>41.66176423693841</v>
+        <v>61.90329378455876</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>14.10938480799862</v>
+        <v>3.790997060169149</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>20.06200881367281</v>
+        <v>31.43254150468652</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.09047777461378</v>
+        <v>37.46527144685211</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>13.4819252262806</v>
+        <v>6.980289855542857</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.63433762489301</v>
+        <v>27.71769068015975</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.74866666574248</v>
+        <v>35.85446182245057</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>14.92724511325981</v>
+        <v>22.44833981955317</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>20.66423415571222</v>
+        <v>38.44485688710643</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.64297300996861</v>
+        <v>43.53512191151513</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>20.77920551160082</v>
+        <v>39.96061589421345</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.60136475220504</v>
+        <v>47.88611745912139</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.30771303336219</v>
+        <v>53.39413310619941</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>19.22513847892098</v>
+        <v>12.4751070245322</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.16225803250895</v>
+        <v>36.21339302350614</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.53910339385094</v>
+        <v>44.71120420488847</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.34692910051423</v>
+        <v>3.772251293130417</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>22.3397116444361</v>
+        <v>33.5245941590519</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.38473651729351</v>
+        <v>41.41492469698946</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>15.72272260750243</v>
+        <v>1.821489119118196</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.91688876400277</v>
+        <v>25.06274416379185</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.04836510200356</v>
+        <v>35.11453149017768</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>17.16773660201387</v>
+        <v>18.81623932580406</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>22.94380099302645</v>
+        <v>36.91796497485971</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.93852442895996</v>
+        <v>43.65115109829698</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>23.09294324326617</v>
+        <v>39.12961026370309</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.94971485922306</v>
+        <v>49.82905563215861</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.67060253193523</v>
+        <v>57.19724738308195</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>21.5251008393282</v>
+        <v>12.76104009541503</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.50874744283966</v>
+        <v>40.61888733494555</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>30.90508155556459</v>
+        <v>50.58090973001261</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>22.95006802880998</v>
+        <v>8.831949727025744</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.89034647349195</v>
+        <v>41.12842904719407</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>30.92521825409975</v>
+        <v>50.40216870216597</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>22.45591923450149</v>
+        <v>6.886175404982872</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.59606805389912</v>
+        <v>32.97556942270332</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.71716397201441</v>
+        <v>44.5744093167385</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>23.86562525531262</v>
+        <v>26.76877806170311</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.59155612928879</v>
+        <v>47.40442405601782</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>31.57638369036951</v>
+        <v>55.47999448894352</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.81615273965304</v>
+        <v>54.04366547451423</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>34.63226938691962</v>
+        <v>65.5408618553992</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.34297025934134</v>
+        <v>73.9844218637019</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.23174016591149</v>
+        <v>23.12948304163796</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>35.15362634636502</v>
+        <v>54.47265490358339</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>37.53847807632212</v>
+        <v>66.48697283485775</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>19.11372318722103</v>
+        <v>5.113806489280947</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.07471209794369</v>
+        <v>34.05674067807298</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>27.10763395049822</v>
+        <v>40.36893678043769</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>18.58891993617646</v>
+        <v>9.751805506558105</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>24.74980455516144</v>
+        <v>31.67025593429216</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>26.86872309658326</v>
+        <v>40.17159390990913</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>20.01773593872403</v>
+        <v>25.52611796765466</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.76245148414833</v>
+        <v>42.53032809314126</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>27.7455221634397</v>
+        <v>47.90934659206506</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.92992044312365</v>
+        <v>44.03437629813598</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>30.76146671916053</v>
+        <v>52.25800015592152</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>32.47133623922603</v>
+        <v>58.71606803223714</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>24.35604469750213</v>
+        <v>15.73469454575223</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.30287984646275</v>
+        <v>40.57261808680718</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>33.68481613910956</v>
+        <v>49.81767458803232</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>21.36778375601349</v>
+        <v>7.526498895845643</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.36903189775673</v>
+        <v>38.62824792804301</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.41853571037951</v>
+        <v>46.77802230801479</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>20.84626084278121</v>
+        <v>6.803993086739261</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.04899871695326</v>
+        <v>31.29087953362334</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.18509239643812</v>
+        <v>41.67968727967125</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>22.27477780876999</v>
+        <v>24.2004760821603</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.05866521193806</v>
+        <v>43.36077569720128</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>30.05774557407084</v>
+        <v>50.35954184993861</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.26023827983648</v>
+        <v>45.58802748681018</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>33.1264955673005</v>
+        <v>56.69584035881676</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.85097548617919</v>
+        <v>64.99400305244154</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>26.67239793490323</v>
+        <v>18.40133964152562</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.66586179345518</v>
+        <v>47.45303435508595</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.06732040876946</v>
+        <v>58.10542360538226</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.74129439557685</v>
+        <v>10.69716159644249</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>33.68965038979102</v>
+        <v>44.29418438690608</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>35.7293301698089</v>
+        <v>53.85145186657461</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>27.3469435640965</v>
+        <v>10.02250284458847</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.49525681592501</v>
+        <v>37.30507579849928</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.62132443655845</v>
+        <v>49.26785568869203</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.7401651462389</v>
+        <v>30.32693160883938</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>34.47354418364203</v>
+        <v>51.97409861530728</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.46305772929789</v>
+        <v>60.33788785031503</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>34.74942137492499</v>
+        <v>58.73081719856219</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>39.57474020173427</v>
+        <v>70.60687102922665</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.2893290206878</v>
+        <v>79.98910204603077</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>33.14616399135813</v>
+        <v>26.92770498566043</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>40.07740074283093</v>
+        <v>59.42008302703066</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>42.46777589615863</v>
+        <v>72.15917464358142</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>8.539089862338308</v>
+        <v>5.168378512163073</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>14.66656731926171</v>
+        <v>32.61538563382801</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.75831122173732</v>
+        <v>38.90568614384839</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>7.846477237391923</v>
+        <v>9.848037595662365</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.17944245443485</v>
+        <v>30.20811137834124</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.35937608388426</v>
+        <v>38.65826510363922</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>9.332620297425139</v>
+        <v>24.61252017419903</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.23779376972322</v>
+        <v>40.26524090103409</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>17.2779730230984</v>
+        <v>45.62509191460025</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>15.42616470961205</v>
+        <v>41.40312783473208</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>20.39236840974151</v>
+        <v>48.85768817426545</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.15248328102245</v>
+        <v>55.46328418336773</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>13.88668745114378</v>
+        <v>14.42419764570605</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>21.02753736338972</v>
+        <v>37.50292779196053</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>23.47811728848728</v>
+        <v>46.71944274027192</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>10.82930104102654</v>
+        <v>8.942622366916535</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>16.99815008777149</v>
+        <v>38.50461658030703</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>19.10702872748561</v>
+        <v>46.63516627963675</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>10.13972813390455</v>
+        <v>8.377289039607525</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>16.51570298886662</v>
+        <v>31.25561722089282</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>18.71338417583506</v>
+        <v>41.59823886080877</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>11.62568317957539</v>
+        <v>24.73197629851827</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>17.57111083764006</v>
+        <v>42.49704592972746</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.62783358689374</v>
+        <v>49.48152532165098</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>17.79446986244171</v>
+        <v>44.34395463472932</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>22.79634163895091</v>
+        <v>54.6366191695851</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.57155712917928</v>
+        <v>63.07566746186928</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>16.24077674486653</v>
+        <v>18.43264767991885</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>23.42954419932333</v>
+        <v>45.65211168817137</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.90029540377107</v>
+        <v>56.28596098792388</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>17.64378449163071</v>
+        <v>12.09332381314937</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>23.75814107273064</v>
+        <v>44.12218519180423</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>25.85701415374974</v>
+        <v>53.65224074463028</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>17.0883861154455</v>
+        <v>11.55150668619655</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>23.40828961545141</v>
+        <v>37.19426779926562</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.59576617378837</v>
+        <v>49.101813860575</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>18.53802440691138</v>
+        <v>30.79756238897267</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>24.43141495877289</v>
+        <v>51.02141602924282</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>26.47839779972126</v>
+        <v>59.36296983490608</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>24.73103176153073</v>
+        <v>57.35743208942523</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.69071465602358</v>
+        <v>68.40936311007732</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.45584136303309</v>
+        <v>77.92566818407749</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>23.15948350225861</v>
+        <v>26.87205807181843</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.28414552863283</v>
+        <v>57.49009967394581</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.74361772622483</v>
+        <v>70.20128078908971</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>16.03373787492909</v>
+        <v>-0.3013845534850397</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>22.02453986674352</v>
+        <v>28.20954525729687</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>24.06769608578538</v>
+        <v>34.48071594861013</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>15.44305064268682</v>
+        <v>2.908163571318848</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>21.63494527881462</v>
+        <v>24.44367191331239</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>23.76449856919917</v>
+        <v>32.88544320698132</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>16.89028661357486</v>
+        <v>18.91574977529429</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.66403270643961</v>
+        <v>35.58289402860409</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.6570393165674</v>
+        <v>40.90723804115608</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.7999124598053</v>
+        <v>37.30901511104339</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>27.65389763273255</v>
+        <v>45.45662507419039</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.37263135943763</v>
+        <v>51.42222471275749</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>21.22846564852193</v>
+        <v>8.876022478731189</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.21007569711613</v>
+        <v>33.46381473877832</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>30.60401470635774</v>
+        <v>42.38498973436037</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>18.28056569898882</v>
+        <v>1.317844756739563</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>24.31174933260549</v>
+        <v>31.97313408469247</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.37158121664412</v>
+        <v>40.11055304009906</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>17.69305071520893</v>
+        <v>-0.7191683175141321</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>23.92692967117692</v>
+        <v>23.36169215123715</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.07375434060856</v>
+        <v>33.72511427170801</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>19.13999187608624</v>
+        <v>16.86856839247731</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>24.95303033255903</v>
+        <v>35.67532472332305</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.96213700060055</v>
+        <v>42.64818469232828</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.1231589005225</v>
+        <v>38.08514589836552</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>30.01195725345805</v>
+        <v>49.06084982486909</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.74535411296705</v>
+        <v>56.89637643339385</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>23.53782087811476</v>
+        <v>10.78848629206254</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.5662115570967</v>
+        <v>39.559696773864</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.97978034076144</v>
+        <v>49.93965099771142</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>24.81472016758258</v>
+        <v>5.330121286553748</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.79282650171721</v>
+        <v>38.51870450213006</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.84257954729642</v>
+        <v>48.0689392992798</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.35706406508781</v>
+        <v>3.316505466843186</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>30.53633016042945</v>
+        <v>30.23419745459528</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>32.6728581802257</v>
+        <v>42.17745065427548</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.76840982871092</v>
+        <v>23.80506983048983</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.53076254453637</v>
+        <v>45.13599105802469</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>33.5300492787854</v>
+        <v>53.4794880992096</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.77657707333552</v>
+        <v>52.06173041765691</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>36.62429934865243</v>
+        <v>63.82511915064831</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.34756171763551</v>
+        <v>72.7526157478847</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>30.17523244558238</v>
+        <v>20.1635394387122</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>37.14118578134274</v>
+        <v>52.41620124892992</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>39.54336852683019</v>
+        <v>64.89090378255473</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>16.88962096669792</v>
+        <v>-8.418357713364074</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>22.81135976673422</v>
+        <v>18.13218999665897</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>24.8352842740609</v>
+        <v>24.37500798642075</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>16.32305734774132</v>
+        <v>-5.136871199966887</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.4433525770284</v>
+        <v>14.34200710974782</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.55285259375504</v>
+        <v>22.71520570254674</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>17.74868290424564</v>
+        <v>9.605633997052678</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.45556519947887</v>
+        <v>24.49702150726738</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.42982199457433</v>
+        <v>29.79670157036334</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.61020600895146</v>
+        <v>25.90466341423673</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.41016582407384</v>
+        <v>33.02214703128148</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.11252289918617</v>
+        <v>39.33693432198213</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.05741926785888</v>
+        <v>-0.5614114350519799</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.95849384945578</v>
+        <v>21.56830496439927</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.32982962835061</v>
+        <v>30.64577266019256</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>19.12920842626695</v>
+        <v>-4.0096475619617</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.09105892067702</v>
+        <v>24.68467799307073</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.13153142168044</v>
+        <v>32.81098039930326</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>18.5659283997635</v>
+        <v>-5.871922877795924</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>24.7279250495157</v>
+        <v>16.15576127660885</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.85456499629814</v>
+        <v>26.4717613908394</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>19.99121059241964</v>
+        <v>10.45366487299339</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.73712263875024</v>
+        <v>27.48570394064837</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.72735658397577</v>
+        <v>34.45428445530759</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.92575206524351</v>
+        <v>29.55812749549434</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.76029311398799</v>
+        <v>39.50645399578305</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>32.47721973469515</v>
+        <v>47.67613651290311</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>24.35910847239048</v>
+        <v>4.118862456104377</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.30664266417295</v>
+        <v>30.41227227433934</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.69745996629775</v>
+        <v>40.97444669597076</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.54730842568711</v>
+        <v>-0.1535524610368739</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.45692859125178</v>
+        <v>31.03247317535847</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.48753585818901</v>
+        <v>40.55566575408039</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.11168363238999</v>
+        <v>-1.995742682516561</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.21994282167793</v>
+        <v>22.82370460076045</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.33651322482643</v>
+        <v>34.70204158313986</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.50175447072467</v>
+        <v>17.19395606154866</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>32.19779644906824</v>
+        <v>36.70886156761751</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.17842533063598</v>
+        <v>45.03277522937465</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>32.46035518729983</v>
+        <v>43.18552579671267</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>37.25445558373235</v>
+        <v>53.89574245482179</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>38.96145097847074</v>
+        <v>63.15730544801664</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>30.87783931072038</v>
+        <v>13.17140415324471</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>37.76392758882224</v>
+        <v>42.88994244931921</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.14360942976334</v>
+        <v>55.52889180056284</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>8.461098581442203</v>
+        <v>-0.9413792295016137</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>14.58408880321912</v>
+        <v>26.13070020234927</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>16.67537416994085</v>
+        <v>32.47846428873469</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>7.768974737763237</v>
+        <v>3.431091634752175</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>14.09729645465359</v>
+        <v>23.39131834982614</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.27673911142704</v>
+        <v>31.90404932137366</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>9.25418136882598</v>
+        <v>18.03477521302782</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.15502583815954</v>
+        <v>33.33788673211131</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>17.19474747723362</v>
+        <v>38.75443481286374</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>15.34530085145261</v>
+        <v>34.59245584201476</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>20.30794350522004</v>
+        <v>41.86201868257437</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>22.06767816896616</v>
+        <v>48.54275561515361</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>13.80785742408846</v>
+        <v>8.00337968872217</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>20.94346179776318</v>
+        <v>30.64952586590343</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>23.39348776679327</v>
+        <v>39.94163420576222</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.74558326961689</v>
+        <v>2.26823137103559</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.90992324305101</v>
+        <v>31.45087840533061</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>19.01834758432616</v>
+        <v>39.65584641284501</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>10.05646482223815</v>
+        <v>1.410220100663469</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>16.42777361049458</v>
+        <v>23.88428705401</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>18.62496837105179</v>
+        <v>34.30879917656831</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>11.54147944598987</v>
+        <v>17.58777329823208</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>17.48255715077111</v>
+        <v>34.99935104645533</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.53882651964588</v>
+        <v>42.05752116574175</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>17.70779517249272</v>
+        <v>36.9500328017386</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.70608805554853</v>
+        <v>47.0563927437325</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.48092687800746</v>
+        <v>55.57951840921701</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>16.1561724177823</v>
+        <v>11.42101389235697</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.33966872873982</v>
+        <v>38.20020207153234</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.8098710801509</v>
+        <v>48.93147774534958</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>17.55277823844472</v>
+        <v>5.667547005881449</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>23.66268993824216</v>
+        <v>37.31823716323412</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.76109509527899</v>
+        <v>46.91900246795724</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>16.99778801484894</v>
+        <v>4.843193306231605</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.31309234811943</v>
+        <v>30.08320984392843</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.50006895349622</v>
+        <v>42.06842409594829</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>18.44648637815792</v>
+        <v>23.91035387198304</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>24.3355891753718</v>
+        <v>43.78186450224619</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.38210606504251</v>
+        <v>52.1934954793655</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>24.63698981218807</v>
+        <v>50.21113016805712</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.5931435456008</v>
+        <v>61.07290324341619</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.35788156090872</v>
+        <v>70.67579233028056</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>23.06753347880257</v>
+        <v>20.10396604495421</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>30.18700067939793</v>
+        <v>50.28084908100595</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>32.64590868723135</v>
+        <v>63.08626332984014</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>18.91390255988483</v>
+        <v>6.417144035354644</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>24.91290819443181</v>
+        <v>34.68642830868413</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>26.96016199203562</v>
+        <v>40.57207153638152</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>18.37247272345058</v>
+        <v>11.17992071108695</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>24.57256358087548</v>
+        <v>32.46771128291748</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>26.70649022088105</v>
+        <v>40.45173433443011</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>19.81487646455128</v>
+        <v>26.74685293118798</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>25.596200944992</v>
+        <v>43.23367140496475</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>27.59331674603309</v>
+        <v>48.18645874534872</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.74429143629959</v>
+        <v>44.45625713232899</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>30.60615372872848</v>
+        <v>52.2785682917481</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>32.32789811263947</v>
+        <v>58.22355764004127</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>24.15382468256142</v>
+        <v>16.4369687040269</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>31.14491127447704</v>
+        <v>40.54062246395998</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>33.54367037967496</v>
+        <v>49.26130019292612</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.18780917105874</v>
+        <v>8.60002060255816</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>27.22743364807783</v>
+        <v>39.01001435794308</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.29136843204941</v>
+        <v>46.69909675523958</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>20.64980120812625</v>
+        <v>8.07257257863702</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>26.89212011131592</v>
+        <v>31.90628120188391</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.04332466181824</v>
+        <v>41.74072548348374</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.09184037414376</v>
+        <v>25.24337206948046</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>27.91268690044164</v>
+        <v>43.86760403277523</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.92590802229605</v>
+        <v>50.40877924129581</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.09526316893443</v>
+        <v>45.78619196511981</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>32.99213789116057</v>
+        <v>56.43226718316053</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>34.72856230372894</v>
+        <v>64.18466781330062</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>26.49076444328929</v>
+        <v>18.87565371481308</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>33.52889895695184</v>
+        <v>47.14827869758027</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>35.9472982563007</v>
+        <v>57.24368929643294</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>27.66595027702946</v>
+        <v>11.82837296862582</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>33.65274660352416</v>
+        <v>44.73975503537498</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>35.70655389670833</v>
+        <v>53.81438912432287</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>27.25651129273366</v>
+        <v>11.2847200783797</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>33.44447871136501</v>
+        <v>37.92066064908816</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>35.58534038955955</v>
+        <v>49.30527926787176</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.66301306283232</v>
+        <v>31.33899515518831</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>34.43341967012908</v>
+        <v>52.45527671116269</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.43677721422365</v>
+        <v>60.34125758045235</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>34.69092975578485</v>
+        <v>58.80660767009057</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>39.54689465956281</v>
+        <v>70.22088139694375</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>41.27315982718411</v>
+        <v>79.04673180281731</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>33.07058517423746</v>
+        <v>27.31878728066798</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>40.0465687052469</v>
+        <v>59.03405979649282</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>42.45352924646493</v>
+        <v>71.18541300443047</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>17.03807423228741</v>
+        <v>0.4184784252763336</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>23.03706028581383</v>
+        <v>29.09632946726908</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>25.08273230793134</v>
+        <v>35.36949826436887</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>16.46738972598351</v>
+        <v>3.863784217514535</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>22.66770855706434</v>
+        <v>25.58282688938307</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>24.799893929166</v>
+        <v>34.02659594240903</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>17.91317378833801</v>
+        <v>19.85269290612489</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.69475996458456</v>
+        <v>36.68483497949863</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.69022849304223</v>
+        <v>42.01331117331662</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>23.83728848532399</v>
+        <v>38.34880120057862</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.69827838722471</v>
+        <v>46.5269466127137</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>30.41903821598365</v>
+        <v>52.58108666007028</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>22.25861878339125</v>
+        <v>9.749697762072946</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.24975789210627</v>
+        <v>34.51649842882733</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>31.64665100388899</v>
+        <v>43.4794549703681</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>19.29330566991968</v>
+        <v>2.196654755484152</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.33274969032589</v>
+        <v>33.0152452698438</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>27.39511592671256</v>
+        <v>41.1569424593045</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>18.72582472845145</v>
+        <v>0.3795508635847895</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>24.96820640366145</v>
+        <v>24.64066219618508</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>27.1176825579843</v>
+        <v>35.00844625262746</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>20.17130129993312</v>
+        <v>17.9562423417664</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>25.99225393695557</v>
+        <v>36.92461043081685</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.00384037163361</v>
+        <v>43.90412381372464</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>26.1691163389588</v>
+        <v>39.27366065055691</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>31.0649860135271</v>
+        <v>50.28155220229065</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>32.80043042182392</v>
+        <v>58.20186193570947</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>24.57651148306701</v>
+        <v>11.80919311845346</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>31.61451718626294</v>
+        <v>40.75640078346826</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>34.03106272012099</v>
+        <v>51.17645467359891</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>25.79509345215076</v>
+        <v>5.216886749054042</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>31.78135890728958</v>
+        <v>38.543998018607</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>33.83370800357808</v>
+        <v>48.107772696212</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>25.35685470169685</v>
+        <v>3.399030311275853</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.54451953620445</v>
+        <v>30.46973451574055</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.68376432675559</v>
+        <v>42.42777928967226</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>26.76674272740743</v>
+        <v>23.8647528862423</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>32.53691322431145</v>
+        <v>45.33311695754499</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.53874073430568</v>
+        <v>53.69233889394842</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>32.78926404666205</v>
+        <v>52.19997714240899</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>37.64397810115301</v>
+        <v>63.98583550378179</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>39.3693452113377</v>
+        <v>73.00426943300434</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>31.18082637141324</v>
+        <v>20.14880422181276</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>38.15627535668037</v>
+        <v>52.54731422718774</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>40.56150805819801</v>
+        <v>65.0738592593578</v>
       </c>
     </row>
   </sheetData>
